--- a/bookData.xlsx
+++ b/bookData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\orderBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2048498A-46E0-48A4-8846-EC1FF3C4F5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7145DE-EE79-4124-ABE2-09FF57A5FD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EA0F01A6-6697-479A-8721-580730332F99}"/>
   </bookViews>
@@ -7321,7 +7321,7 @@
   <dimension ref="A1:R2558"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
